--- a/tutorials/Tutorial plan.xlsx
+++ b/tutorials/Tutorial plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guiliberali/Google Drive/Teaching/Teaching - BigData 2024/Github/Big-Data-2024/tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394195E8-F1F5-D44E-915D-C64644EA2D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4C8C29-EF3E-754E-BD80-E9CAC5CB2169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="760" windowWidth="21960" windowHeight="21580" xr2:uid="{16787138-0C24-184A-98B2-327E13C17B03}"/>
+    <workbookView xWindow="72960" yWindow="-7040" windowWidth="21960" windowHeight="21100" xr2:uid="{16787138-0C24-184A-98B2-327E13C17B03}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Monday</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Tutorial 2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -657,7 +660,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -674,6 +677,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>4</v>

--- a/tutorials/Tutorial plan.xlsx
+++ b/tutorials/Tutorial plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guiliberali/Google Drive/Teaching/Teaching - BigData 2024/Github/Big-Data-2024/tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4C8C29-EF3E-754E-BD80-E9CAC5CB2169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4949510-7A33-D54A-B74A-D93297D8A767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72960" yWindow="-7040" windowWidth="21960" windowHeight="21100" xr2:uid="{16787138-0C24-184A-98B2-327E13C17B03}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{16787138-0C24-184A-98B2-327E13C17B03}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Monday</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Lecture 2.6</t>
   </si>
   <si>
-    <t>Location/room</t>
-  </si>
-  <si>
     <t>Intro to R, Rmarkdown, structure exercises</t>
   </si>
   <si>
@@ -177,6 +174,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Location</t>
   </si>
 </sst>
 </file>
@@ -275,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -320,6 +323,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,10 +661,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -669,20 +673,20 @@
     <col min="2" max="2" width="7.83203125" style="2" customWidth="1"/>
     <col min="3" max="5" width="15.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="42.5" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -698,11 +702,14 @@
       <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="22" x14ac:dyDescent="0.3">
+      <c r="G4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="22" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>36</v>
       </c>
@@ -714,8 +721,11 @@
       <c r="F5" s="15" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="22" x14ac:dyDescent="0.3">
+      <c r="G5" s="20">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="22" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>36</v>
       </c>
@@ -725,10 +735,13 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="22" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="22" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>36</v>
       </c>
@@ -740,8 +753,11 @@
       <c r="F7" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="22" x14ac:dyDescent="0.3">
+      <c r="G7" s="20">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="22" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>36</v>
       </c>
@@ -751,10 +767,13 @@
         <v>11</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="22" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>37</v>
       </c>
@@ -766,8 +785,11 @@
       <c r="F9" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="22" x14ac:dyDescent="0.3">
+      <c r="G9" s="20">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="22" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>37</v>
       </c>
@@ -777,10 +799,13 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="22" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="22" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>37</v>
       </c>
@@ -792,8 +817,11 @@
       <c r="F11" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="22" x14ac:dyDescent="0.3">
+      <c r="G11" s="20">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="22" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>37</v>
       </c>
@@ -805,8 +833,11 @@
       <c r="F12" s="16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="22" x14ac:dyDescent="0.3">
+      <c r="G12" s="20">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="22" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>38</v>
       </c>
@@ -818,8 +849,11 @@
       <c r="F13" s="17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="22" x14ac:dyDescent="0.3">
+      <c r="G13" s="20">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="22" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>39</v>
       </c>
@@ -831,8 +865,11 @@
       <c r="F14" s="17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="22" x14ac:dyDescent="0.3">
+      <c r="G14" s="20">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="22" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>39</v>
       </c>
@@ -844,8 +881,11 @@
       <c r="F15" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="22" x14ac:dyDescent="0.3">
+      <c r="G15" s="20">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="22" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>39</v>
       </c>
@@ -855,10 +895,13 @@
         <v>33</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="22" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="G16" s="20">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="22" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>40</v>
       </c>
@@ -870,8 +913,11 @@
       <c r="F17" s="17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="G17" s="20">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="22" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>40</v>
       </c>
@@ -881,10 +927,13 @@
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="22" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="G18" s="20">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="22" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>40</v>
       </c>
@@ -896,8 +945,11 @@
       <c r="F19" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="G19" s="20">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="22" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>40</v>
       </c>
@@ -907,10 +959,13 @@
         <v>35</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="22" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="G20" s="20">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="22" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>41</v>
       </c>
@@ -922,8 +977,11 @@
       <c r="F21" s="17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="G21" s="20">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="22" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>41</v>
       </c>
@@ -935,21 +993,27 @@
       <c r="F22" s="15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="G22" s="20">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="22" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>41</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="G23" s="20">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="22" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>42</v>
       </c>
@@ -960,6 +1024,9 @@
       <c r="E24" s="14"/>
       <c r="F24" s="18" t="s">
         <v>27</v>
+      </c>
+      <c r="G24" s="20">
+        <v>0.54166666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/tutorials/Tutorial plan.xlsx
+++ b/tutorials/Tutorial plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guiliberali/Google Drive/Teaching/Teaching - BigData 2024/Github/Big-Data-2024/tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4949510-7A33-D54A-B74A-D93297D8A767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2D358B-EEEE-7F48-81C5-B2F4DFF0E0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{16787138-0C24-184A-98B2-327E13C17B03}"/>
   </bookViews>
@@ -278,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -324,6 +324,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,7 +665,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,7 +770,7 @@
       <c r="F8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="21">
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -833,7 +834,7 @@
       <c r="F12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="21">
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -849,7 +850,7 @@
       <c r="F13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="21">
         <v>0.54166666666666663</v>
       </c>
     </row>
@@ -897,7 +898,7 @@
       <c r="F16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="21">
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -961,7 +962,7 @@
       <c r="F20" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="21">
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -1009,7 +1010,7 @@
       <c r="F23" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="21">
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -1025,7 +1026,7 @@
       <c r="F24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="21">
         <v>0.54166666666666663</v>
       </c>
     </row>

--- a/tutorials/Tutorial plan.xlsx
+++ b/tutorials/Tutorial plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guiliberali/Google Drive/Teaching/Teaching - BigData 2024/Github/Big-Data-2024/tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2D358B-EEEE-7F48-81C5-B2F4DFF0E0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72894624-E9BE-574D-A739-A4E670570731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{16787138-0C24-184A-98B2-327E13C17B03}"/>
   </bookViews>
@@ -65,9 +65,6 @@
     <t>Lecture 1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Supervised </t>
-  </si>
-  <si>
     <t>Tutorial 1.2</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Tutorial 1.3</t>
   </si>
   <si>
-    <t xml:space="preserve">Unsupervised </t>
-  </si>
-  <si>
     <t>Analysis</t>
   </si>
   <si>
@@ -155,12 +149,6 @@
     <t>Intro to R, Rmarkdown, structure exercises</t>
   </si>
   <si>
-    <t xml:space="preserve">R - Supervised </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R - Unsupervised </t>
-  </si>
-  <si>
     <t>R - Greedy &amp; regret</t>
   </si>
   <si>
@@ -180,13 +168,25 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>Supervised Learning</t>
+  </si>
+  <si>
+    <t>R - Supervised Learning</t>
+  </si>
+  <si>
+    <t>Unsupervised Learning</t>
+  </si>
+  <si>
+    <t>R - Unsupervised Learning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -225,6 +225,12 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
@@ -278,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -325,6 +331,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,7 +672,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -679,12 +686,12 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -704,10 +711,10 @@
         <v>3</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="22" x14ac:dyDescent="0.3">
@@ -720,7 +727,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" s="20">
         <v>0.54166666666666663</v>
@@ -736,7 +743,7 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" s="20">
         <v>0.58333333333333337</v>
@@ -752,7 +759,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="G7" s="20">
         <v>0.45833333333333331</v>
@@ -765,10 +772,10 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G8" s="21">
         <v>0.58333333333333337</v>
@@ -779,12 +786,12 @@
         <v>37</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="17" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G9" s="20">
         <v>0.54166666666666663</v>
@@ -796,11 +803,11 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="15" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G10" s="20">
         <v>0.58333333333333337</v>
@@ -813,10 +820,10 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" s="20">
         <v>0.45833333333333331</v>
@@ -829,10 +836,10 @@
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" s="21">
         <v>0.58333333333333337</v>
@@ -843,12 +850,12 @@
         <v>38</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13" s="21">
         <v>0.54166666666666663</v>
@@ -859,12 +866,12 @@
         <v>39</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G14" s="20">
         <v>0.54166666666666663</v>
@@ -877,10 +884,10 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G15" s="20">
         <v>0.45833333333333331</v>
@@ -893,10 +900,10 @@
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G16" s="21">
         <v>0.58333333333333337</v>
@@ -907,12 +914,12 @@
         <v>40</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G17" s="20">
         <v>0.54166666666666663</v>
@@ -924,11 +931,11 @@
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G18" s="20">
         <v>0.58333333333333337</v>
@@ -941,10 +948,10 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G19" s="20">
         <v>0.45833333333333331</v>
@@ -957,10 +964,10 @@
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G20" s="21">
         <v>0.58333333333333337</v>
@@ -971,12 +978,12 @@
         <v>41</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="20">
         <v>0.54166666666666663</v>
@@ -989,10 +996,10 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G22" s="20">
         <v>0.45833333333333331</v>
@@ -1005,10 +1012,10 @@
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G23" s="21">
         <v>0.58333333333333337</v>
@@ -1019,12 +1026,12 @@
         <v>42</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G24" s="21">
         <v>0.54166666666666663</v>

--- a/tutorials/Tutorial plan.xlsx
+++ b/tutorials/Tutorial plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guiliberali/Google Drive/Teaching/Teaching - BigData 2024/Github/Big-Data-2024/tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72894624-E9BE-574D-A739-A4E670570731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EB5B9C0-0CD3-4440-81F3-57B06141CE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{16787138-0C24-184A-98B2-327E13C17B03}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{16787138-0C24-184A-98B2-327E13C17B03}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Monday</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>R - Unsupervised Learning</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -284,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -331,7 +334,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -669,10 +681,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,19 +694,20 @@
     <col min="3" max="5" width="15.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="42.5" customWidth="1"/>
     <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -713,11 +726,14 @@
       <c r="G4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>36</v>
       </c>
@@ -732,8 +748,11 @@
       <c r="G5" s="20">
         <v>0.54166666666666663</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="22" x14ac:dyDescent="0.3">
+      <c r="H5" s="23">
+        <v>45537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>36</v>
       </c>
@@ -748,8 +767,11 @@
       <c r="G6" s="20">
         <v>0.58333333333333337</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="22" x14ac:dyDescent="0.3">
+      <c r="H6" s="23">
+        <v>45539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>36</v>
       </c>
@@ -764,8 +786,11 @@
       <c r="G7" s="20">
         <v>0.45833333333333331</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="22" x14ac:dyDescent="0.3">
+      <c r="H7" s="23">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>36</v>
       </c>
@@ -780,8 +805,11 @@
       <c r="G8" s="21">
         <v>0.58333333333333337</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="22" x14ac:dyDescent="0.3">
+      <c r="H8" s="24">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>37</v>
       </c>
@@ -796,8 +824,11 @@
       <c r="G9" s="20">
         <v>0.54166666666666663</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="22" x14ac:dyDescent="0.3">
+      <c r="H9" s="23">
+        <v>45544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>37</v>
       </c>
@@ -812,8 +843,11 @@
       <c r="G10" s="20">
         <v>0.58333333333333337</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="22" x14ac:dyDescent="0.3">
+      <c r="H10" s="23">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>37</v>
       </c>
@@ -828,8 +862,11 @@
       <c r="G11" s="20">
         <v>0.45833333333333331</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="22" x14ac:dyDescent="0.3">
+      <c r="H11" s="23">
+        <v>45548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>37</v>
       </c>
@@ -844,8 +881,11 @@
       <c r="G12" s="21">
         <v>0.58333333333333337</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="22" x14ac:dyDescent="0.3">
+      <c r="H12" s="24">
+        <v>45548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>38</v>
       </c>
@@ -860,8 +900,11 @@
       <c r="G13" s="21">
         <v>0.54166666666666663</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="22" x14ac:dyDescent="0.3">
+      <c r="H13" s="25">
+        <v>45551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>39</v>
       </c>
@@ -876,8 +919,11 @@
       <c r="G14" s="20">
         <v>0.54166666666666663</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="22" x14ac:dyDescent="0.3">
+      <c r="H14" s="23">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>39</v>
       </c>
@@ -892,8 +938,11 @@
       <c r="G15" s="20">
         <v>0.45833333333333331</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="22" x14ac:dyDescent="0.3">
+      <c r="H15" s="23">
+        <v>45562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>39</v>
       </c>
@@ -908,8 +957,11 @@
       <c r="G16" s="21">
         <v>0.58333333333333337</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="22" x14ac:dyDescent="0.3">
+      <c r="H16" s="24">
+        <v>45562</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="22" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>40</v>
       </c>
@@ -924,8 +976,11 @@
       <c r="G17" s="20">
         <v>0.54166666666666663</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="22" x14ac:dyDescent="0.3">
+      <c r="H17" s="23">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="22" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>40</v>
       </c>
@@ -940,8 +995,11 @@
       <c r="G18" s="20">
         <v>0.58333333333333337</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" ht="22" x14ac:dyDescent="0.3">
+      <c r="H18" s="23">
+        <v>45567</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="22" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>40</v>
       </c>
@@ -956,8 +1014,11 @@
       <c r="G19" s="20">
         <v>0.45833333333333331</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" ht="22" x14ac:dyDescent="0.3">
+      <c r="H19" s="23">
+        <v>45569</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="22" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>40</v>
       </c>
@@ -972,8 +1033,11 @@
       <c r="G20" s="21">
         <v>0.58333333333333337</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" ht="22" x14ac:dyDescent="0.3">
+      <c r="H20" s="24">
+        <v>45569</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="22" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>41</v>
       </c>
@@ -988,8 +1052,11 @@
       <c r="G21" s="20">
         <v>0.54166666666666663</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" ht="22" x14ac:dyDescent="0.3">
+      <c r="H21" s="23">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="22" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>41</v>
       </c>
@@ -1004,8 +1071,11 @@
       <c r="G22" s="20">
         <v>0.45833333333333331</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" ht="22" x14ac:dyDescent="0.3">
+      <c r="H22" s="23">
+        <v>45576</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="22" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>41</v>
       </c>
@@ -1020,8 +1090,11 @@
       <c r="G23" s="21">
         <v>0.58333333333333337</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" ht="22" x14ac:dyDescent="0.3">
+      <c r="H23" s="24">
+        <v>45576</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="22" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>42</v>
       </c>
@@ -1035,6 +1108,9 @@
       </c>
       <c r="G24" s="21">
         <v>0.54166666666666663</v>
+      </c>
+      <c r="H24" s="24">
+        <v>45579</v>
       </c>
     </row>
   </sheetData>

--- a/tutorials/Tutorial plan.xlsx
+++ b/tutorials/Tutorial plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\TA\Adm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guiliberali/Google Drive/Teaching/Teaching - BigData 2024/Github/Big-Data-2024/tutorials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79C6BA6-4508-4ED9-8988-3615D6439BE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75846842-0D84-6A4B-BD4C-84B10A4C679D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{16787138-0C24-184A-98B2-327E13C17B03}"/>
+    <workbookView xWindow="72960" yWindow="-7040" windowWidth="34560" windowHeight="21100" xr2:uid="{16787138-0C24-184A-98B2-327E13C17B03}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,6 +248,13 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -300,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -329,9 +336,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -347,9 +351,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,6 +358,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -698,32 +711,32 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="143" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" customWidth="1"/>
-    <col min="2" max="2" width="7.796875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="2" customWidth="1"/>
     <col min="3" max="5" width="15.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="42.5" customWidth="1"/>
-    <col min="7" max="7" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
@@ -742,14 +755,14 @@
       <c r="G4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>36</v>
       </c>
@@ -758,431 +771,431 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="21">
         <v>45537</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>36</v>
       </c>
       <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="24" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="21">
         <v>45539</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>36</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="21">
         <v>45541</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>36</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="22">
         <v>45541</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>37</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="17" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="21">
         <v>45544</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>37</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="15" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="21">
         <v>45546</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>37</v>
       </c>
       <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="21">
         <v>45548</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>37</v>
       </c>
       <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="20">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="22">
         <v>45548</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>38</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="17" t="s">
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="23">
         <v>45551</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>39</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="17" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="21">
         <v>45558</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>39</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="19">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="21">
         <v>45562</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>39</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="22">
         <v>45562</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>40</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="17" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="21">
         <v>45565</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>40</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="15" t="s">
+      <c r="E18" s="24"/>
+      <c r="F18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="21">
         <v>45567</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>40</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="24"/>
+      <c r="E19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="19">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="21">
         <v>45569</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>40</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="20">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="22">
         <v>45569</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>41</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="17" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="19">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="21">
         <v>45572</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>41</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="19">
         <v>0.45833333333333331</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="21">
         <v>45576</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>41</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="20">
         <v>0.58333333333333337</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="22">
         <v>45576</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B24" s="7">
         <v>42</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="18" t="s">
+      <c r="D24" s="13"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="20">
         <v>0.54166666666666663</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="22">
         <v>45579</v>
       </c>
       <c r="I24" s="3" t="s">
